--- a/results/sorted/efficiency_summary.xlsx
+++ b/results/sorted/efficiency_summary.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,40 +571,40 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>0.8555462360382082</v>
+        <v>0.0493336200714111</v>
       </c>
       <c r="D6">
-        <v>0.1000020503997803</v>
+        <v>0.0965862274169921</v>
       </c>
       <c r="E6">
-        <v>0.2491552352905274</v>
+        <v>0.2448820114135742</v>
       </c>
       <c r="F6">
-        <v>0.0554901123046875</v>
+        <v>0.05528330802917474</v>
       </c>
       <c r="G6">
-        <v>0.108938455581665</v>
+        <v>0.1070862770080566</v>
       </c>
       <c r="H6">
-        <v>0.2617311477661133</v>
+        <v>0.2635393142700195</v>
       </c>
       <c r="I6">
-        <v>1.777106685544245</v>
+        <v>0.001499768062815408</v>
       </c>
       <c r="J6">
-        <v>0.00150618090355478</v>
+        <v>0.003322395330365913</v>
       </c>
       <c r="K6">
-        <v>0.02296948916139341</v>
+        <v>0.02054557114765847</v>
       </c>
       <c r="L6">
-        <v>0.0006167225650932066</v>
+        <v>0.003664419226801495</v>
       </c>
       <c r="M6">
-        <v>0.00908433461265447</v>
+        <v>0.008401469811788159</v>
       </c>
       <c r="N6">
-        <v>0.01141771984345647</v>
+        <v>0.01245394104191889</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -631,40 +631,40 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0.112950611114502</v>
+        <v>0.1077528476715088</v>
       </c>
       <c r="D7">
-        <v>0.2116061687469482</v>
+        <v>0.1986721992492675</v>
       </c>
       <c r="E7">
-        <v>0.5437403678894043</v>
+        <v>0.4978653430938721</v>
       </c>
       <c r="F7">
-        <v>0.1162274837493897</v>
+        <v>0.1132849216461181</v>
       </c>
       <c r="G7">
-        <v>0.2279120445251465</v>
+        <v>0.2344189643859863</v>
       </c>
       <c r="H7">
-        <v>0.5468056678771973</v>
+        <v>0.5505588531494141</v>
       </c>
       <c r="I7">
-        <v>0.01084694243211119</v>
+        <v>0.01501893341043448</v>
       </c>
       <c r="J7">
-        <v>0.008866079980653129</v>
+        <v>0.0009744883024021258</v>
       </c>
       <c r="K7">
-        <v>0.02747661049382217</v>
+        <v>0.01584029477293435</v>
       </c>
       <c r="L7">
-        <v>0.01100722327420656</v>
+        <v>0.01158336582698705</v>
       </c>
       <c r="M7">
-        <v>0.02290702529922178</v>
+        <v>0.02355971286389702</v>
       </c>
       <c r="N7">
-        <v>0.03339339656247121</v>
+        <v>0.001620182514025007</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -691,40 +691,40 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>0.3910892963409424</v>
+        <v>0.3662794589996338</v>
       </c>
       <c r="D8">
-        <v>0.7583489418029785</v>
+        <v>0.7426282405853272</v>
       </c>
       <c r="E8">
-        <v>1.893919038772583</v>
+        <v>1.84299840927124</v>
       </c>
       <c r="F8">
-        <v>0.4026394844055176</v>
+        <v>0.4179901599884033</v>
       </c>
       <c r="G8">
-        <v>0.7842442035675049</v>
+        <v>0.8040728092193603</v>
       </c>
       <c r="H8">
-        <v>1.923858880996704</v>
+        <v>1.975489902496338</v>
       </c>
       <c r="I8">
-        <v>0.02229514439501768</v>
+        <v>0.0007798983242025198</v>
       </c>
       <c r="J8">
-        <v>0.010371956635194</v>
+        <v>0.01333185775051204</v>
       </c>
       <c r="K8">
-        <v>0.01342027261684972</v>
+        <v>0.007593223771165328</v>
       </c>
       <c r="L8">
-        <v>0.02694759402788312</v>
+        <v>0.002110325224514707</v>
       </c>
       <c r="M8">
-        <v>0.003550156969832961</v>
+        <v>0.01498857447314165</v>
       </c>
       <c r="N8">
-        <v>0.005824694930199692</v>
+        <v>0.03318480692722571</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -751,40 +751,40 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>1.192217874526978</v>
+        <v>1.168050575256348</v>
       </c>
       <c r="D9">
-        <v>2.369513607025147</v>
+        <v>2.328328037261963</v>
       </c>
       <c r="E9">
-        <v>5.892078161239624</v>
+        <v>5.792833471298218</v>
       </c>
       <c r="F9">
-        <v>1.202971506118774</v>
+        <v>1.216027641296387</v>
       </c>
       <c r="G9">
-        <v>2.401059198379516</v>
+        <v>2.44075345993042</v>
       </c>
       <c r="H9">
-        <v>5.980719804763794</v>
+        <v>6.067565536499023</v>
       </c>
       <c r="I9">
-        <v>0.004735228183567287</v>
+        <v>0.003395705672844987</v>
       </c>
       <c r="J9">
-        <v>0.008660974997106042</v>
+        <v>0.007828653251687405</v>
       </c>
       <c r="K9">
-        <v>0.03700306256339514</v>
+        <v>0.01942786633928496</v>
       </c>
       <c r="L9">
-        <v>0.008049273640936468</v>
+        <v>0.01446630359068167</v>
       </c>
       <c r="M9">
-        <v>0.01590765208535291</v>
+        <v>0.01501498133619973</v>
       </c>
       <c r="N9">
-        <v>0.02525539085965678</v>
+        <v>0.0150407432330639</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -806,47 +806,45 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="C10">
-        <v>0.1387525081634521</v>
+        <v>3.906078338623047</v>
       </c>
       <c r="D10">
-        <v>0.1459084987640381</v>
+        <v>7.791527986526489</v>
       </c>
       <c r="E10">
-        <v>0.1606269836425781</v>
+        <v>19.42664365768433</v>
       </c>
       <c r="F10">
-        <v>0.1363100528717041</v>
+        <v>4.068740129470825</v>
       </c>
       <c r="G10">
-        <v>0.1431180477142334</v>
+        <v>8.089431381225586</v>
       </c>
       <c r="H10">
-        <v>0.1640622138977051</v>
+        <v>20.16798477172852</v>
       </c>
       <c r="I10">
-        <v>0.006803828766279335</v>
+        <v>0.01171126494805055</v>
       </c>
       <c r="J10">
-        <v>0.01148292577864921</v>
+        <v>0.008964671648526571</v>
       </c>
       <c r="K10">
-        <v>0.001392772474760977</v>
+        <v>0.03414369731214468</v>
       </c>
       <c r="L10">
-        <v>0.0005218817521797301</v>
+        <v>0.05918150362642969</v>
       </c>
       <c r="M10">
-        <v>0.001465793532752303</v>
+        <v>0.02159785707236253</v>
       </c>
       <c r="N10">
-        <v>0.003152634927367459</v>
+        <v>0.01232539926840831</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -870,43 +868,43 @@
     <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="C11">
-        <v>0.1378682613372803</v>
+        <v>8.464201307296753</v>
       </c>
       <c r="D11">
-        <v>0.1465262889862061</v>
+        <v>16.84793934822083</v>
       </c>
       <c r="E11">
-        <v>0.1796902179718018</v>
+        <v>42.33699917793274</v>
       </c>
       <c r="F11">
-        <v>0.1363548755645752</v>
+        <v>8.556492805480957</v>
       </c>
       <c r="G11">
-        <v>0.1442118644714356</v>
+        <v>16.95024623870849</v>
       </c>
       <c r="H11">
-        <v>0.1856571674346924</v>
+        <v>41.36870822906494</v>
       </c>
       <c r="I11">
-        <v>0.001437478618938448</v>
+        <v>0.04957880411320818</v>
       </c>
       <c r="J11">
-        <v>0.001820336713739754</v>
+        <v>0.1208234126054712</v>
       </c>
       <c r="K11">
-        <v>0.02733656295521156</v>
+        <v>0.1421430024265393</v>
       </c>
       <c r="L11">
-        <v>0.0009385723610745721</v>
+        <v>0.03133466508516253</v>
       </c>
       <c r="M11">
-        <v>0.001827434905070002</v>
+        <v>0.2063072286420639</v>
       </c>
       <c r="N11">
-        <v>0.04398214643801412</v>
+        <v>0.06368715441661528</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -930,43 +928,43 @@
     <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="C12">
-        <v>0.1408536911010742</v>
+        <v>14.6659019947052</v>
       </c>
       <c r="D12">
-        <v>0.2517284870147705</v>
+        <v>28.68648567199707</v>
       </c>
       <c r="E12">
-        <v>0.4121602058410644</v>
+        <v>71.99720697402954</v>
       </c>
       <c r="F12">
-        <v>0.1424798965454102</v>
+        <v>14.34110608100891</v>
       </c>
       <c r="G12">
-        <v>0.2498422622680664</v>
+        <v>29.28568801879883</v>
       </c>
       <c r="H12">
-        <v>0.4324337959289551</v>
+        <v>72.06979990005493</v>
       </c>
       <c r="I12">
-        <v>0.001544346986953546</v>
+        <v>0.0196885616623203</v>
       </c>
       <c r="J12">
-        <v>0.0008890831234817615</v>
+        <v>0.3626237525268091</v>
       </c>
       <c r="K12">
-        <v>0.05654320465271179</v>
+        <v>0.8476040200479107</v>
       </c>
       <c r="L12">
-        <v>0.0009638064498875543</v>
+        <v>0.1338887377555376</v>
       </c>
       <c r="M12">
-        <v>0.001762249340924316</v>
+        <v>0.07726471419115112</v>
       </c>
       <c r="N12">
-        <v>0.05492055389323666</v>
+        <v>0.973788345533448</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -990,60 +988,542 @@
     <row r="13" spans="1:20">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C13">
+        <v>31.99278111457825</v>
+      </c>
+      <c r="D13">
+        <v>62.65457072257995</v>
+      </c>
+      <c r="E13">
+        <v>158.1443058490753</v>
+      </c>
+      <c r="F13">
+        <v>31.4286584854126</v>
+      </c>
+      <c r="G13">
+        <v>63.82035431861878</v>
+      </c>
+      <c r="H13">
+        <v>157.0911134719849</v>
+      </c>
+      <c r="I13">
+        <v>0.06898909500620029</v>
+      </c>
+      <c r="J13">
+        <v>0.819118832856612</v>
+      </c>
+      <c r="K13">
+        <v>1.611429634901331</v>
+      </c>
+      <c r="L13">
+        <v>0.2343406060824513</v>
+      </c>
+      <c r="M13">
+        <v>0.1613530216569662</v>
+      </c>
+      <c r="N13">
+        <v>2.253554362315676</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>0.1365355491638183</v>
+      </c>
+      <c r="D14">
+        <v>0.1433714389801025</v>
+      </c>
+      <c r="E14">
+        <v>0.1660582542419433</v>
+      </c>
+      <c r="F14">
+        <v>0.1383119583129883</v>
+      </c>
+      <c r="G14">
+        <v>0.1436182975769042</v>
+      </c>
+      <c r="H14">
+        <v>0.1641101360321044</v>
+      </c>
+      <c r="I14">
+        <v>0.002345593749934547</v>
+      </c>
+      <c r="J14">
+        <v>0.002034129084866005</v>
+      </c>
+      <c r="K14">
+        <v>0.01193643939490781</v>
+      </c>
+      <c r="L14">
+        <v>0.0016283340147953</v>
+      </c>
+      <c r="M14">
+        <v>0.001661986205528135</v>
+      </c>
+      <c r="N14">
+        <v>0.001228511475457145</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>0.1364204883575439</v>
+      </c>
+      <c r="D15">
+        <v>0.1424901485443115</v>
+      </c>
+      <c r="E15">
+        <v>0.1699324131011963</v>
+      </c>
+      <c r="F15">
+        <v>0.1384756088256835</v>
+      </c>
+      <c r="G15">
+        <v>0.145780611038208</v>
+      </c>
+      <c r="H15">
+        <v>0.2082137584686279</v>
+      </c>
+      <c r="I15">
+        <v>0.0008406996956033607</v>
+      </c>
+      <c r="J15">
+        <v>0.002701516132907659</v>
+      </c>
+      <c r="K15">
+        <v>0.01633406272631805</v>
+      </c>
+      <c r="L15">
+        <v>0.001818114197470377</v>
+      </c>
+      <c r="M15">
+        <v>0.00110980923232014</v>
+      </c>
+      <c r="N15">
+        <v>0.05417291352580212</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>0.1437006473541259</v>
+      </c>
+      <c r="D16">
+        <v>0.2540008068084717</v>
+      </c>
+      <c r="E16">
+        <v>0.4286275386810303</v>
+      </c>
+      <c r="F16">
+        <v>0.1439775943756103</v>
+      </c>
+      <c r="G16">
+        <v>0.2530219554901123</v>
+      </c>
+      <c r="H16">
+        <v>0.4554590225219727</v>
+      </c>
+      <c r="I16">
+        <v>0.007742621655246541</v>
+      </c>
+      <c r="J16">
+        <v>0.01100983315162629</v>
+      </c>
+      <c r="K16">
+        <v>0.05515692623864581</v>
+      </c>
+      <c r="L16">
+        <v>0.0004927328023847728</v>
+      </c>
+      <c r="M16">
+        <v>0.002614869844747894</v>
+      </c>
+      <c r="N16">
+        <v>0.04399750858273802</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>10000</v>
       </c>
-      <c r="C13">
-        <v>0.2729713916778564</v>
-      </c>
-      <c r="D13">
-        <v>0.5058293819427491</v>
-      </c>
-      <c r="E13">
-        <v>1.01823296546936</v>
-      </c>
-      <c r="F13">
-        <v>0.2928820610046386</v>
-      </c>
-      <c r="G13">
-        <v>0.4824329376220703</v>
-      </c>
-      <c r="H13">
-        <v>1.035974311828613</v>
-      </c>
-      <c r="I13">
-        <v>0.04421322506397481</v>
-      </c>
-      <c r="J13">
-        <v>0.05177461149840571</v>
-      </c>
-      <c r="K13">
-        <v>0.05482733313065478</v>
-      </c>
-      <c r="L13">
-        <v>0.05512669309837119</v>
-      </c>
-      <c r="M13">
-        <v>0.04546453947562511</v>
-      </c>
-      <c r="N13">
-        <v>0.05021178834935135</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
+      <c r="C17">
+        <v>0.2686922550201415</v>
+      </c>
+      <c r="D17">
+        <v>0.4767541885375977</v>
+      </c>
+      <c r="E17">
+        <v>1.018900203704834</v>
+      </c>
+      <c r="F17">
+        <v>0.3167713642120361</v>
+      </c>
+      <c r="G17">
+        <v>0.4842744827270508</v>
+      </c>
+      <c r="H17">
+        <v>1.029982948303223</v>
+      </c>
+      <c r="I17">
+        <v>0.04464038914083986</v>
+      </c>
+      <c r="J17">
+        <v>0.04466592523762303</v>
+      </c>
+      <c r="K17">
+        <v>0.05356281045804653</v>
+      </c>
+      <c r="L17">
+        <v>0.05554845526806763</v>
+      </c>
+      <c r="M17">
+        <v>0.0438599528877392</v>
+      </c>
+      <c r="N17">
+        <v>0.05596782928991566</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C18">
+        <v>0.726404333114624</v>
+      </c>
+      <c r="D18">
+        <v>1.294009304046631</v>
+      </c>
+      <c r="E18">
+        <v>3.079262685775757</v>
+      </c>
+      <c r="F18">
+        <v>0.7588302612304687</v>
+      </c>
+      <c r="G18">
+        <v>1.348929309844971</v>
+      </c>
+      <c r="H18">
+        <v>3.178260612487793</v>
+      </c>
+      <c r="I18">
+        <v>0.05648375207397296</v>
+      </c>
+      <c r="J18">
+        <v>0.0450425035924911</v>
+      </c>
+      <c r="K18">
+        <v>0.0833381932762792</v>
+      </c>
+      <c r="L18">
+        <v>0.04546886816004944</v>
+      </c>
+      <c r="M18">
+        <v>0.08721642101927529</v>
+      </c>
+      <c r="N18">
+        <v>0.08344505981277582</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C19">
+        <v>1.486298990249634</v>
+      </c>
+      <c r="D19">
+        <v>2.756950235366821</v>
+      </c>
+      <c r="E19">
+        <v>6.486332178115845</v>
+      </c>
+      <c r="F19">
+        <v>1.526009893417358</v>
+      </c>
+      <c r="G19">
+        <v>2.713847351074219</v>
+      </c>
+      <c r="H19">
+        <v>6.225200462341308</v>
+      </c>
+      <c r="I19">
+        <v>0.1223737570546516</v>
+      </c>
+      <c r="J19">
+        <v>0.05492808579130424</v>
+      </c>
+      <c r="K19">
+        <v>0.1706799745133915</v>
+      </c>
+      <c r="L19">
+        <v>0.04425184403447522</v>
+      </c>
+      <c r="M19">
+        <v>0.07221512006561893</v>
+      </c>
+      <c r="N19">
+        <v>0.3502652620319914</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C20">
+        <v>2.408510684967041</v>
+      </c>
+      <c r="D20">
+        <v>4.478297710418701</v>
+      </c>
+      <c r="E20">
+        <v>10.93320698738098</v>
+      </c>
+      <c r="F20">
+        <v>2.412562704086304</v>
+      </c>
+      <c r="G20">
+        <v>4.546071910858155</v>
+      </c>
+      <c r="H20">
+        <v>10.72119464874268</v>
+      </c>
+      <c r="I20">
+        <v>0.06972782121040898</v>
+      </c>
+      <c r="J20">
+        <v>0.09499133475129597</v>
+      </c>
+      <c r="K20">
+        <v>0.3411552919136234</v>
+      </c>
+      <c r="L20">
+        <v>0.04334816221491719</v>
+      </c>
+      <c r="M20">
+        <v>0.1817111643181736</v>
+      </c>
+      <c r="N20">
+        <v>0.2744519189309572</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C21">
+        <v>5.144896697998047</v>
+      </c>
+      <c r="D21">
+        <v>9.78537917137146</v>
+      </c>
+      <c r="E21">
+        <v>23.50996537208557</v>
+      </c>
+      <c r="F21">
+        <v>5.065259790420532</v>
+      </c>
+      <c r="G21">
+        <v>9.916620492935181</v>
+      </c>
+      <c r="H21">
+        <v>22.97416563034058</v>
+      </c>
+      <c r="I21">
+        <v>0.2238296034301452</v>
+      </c>
+      <c r="J21">
+        <v>0.2780843385666336</v>
+      </c>
+      <c r="K21">
+        <v>0.5287660667847955</v>
+      </c>
+      <c r="L21">
+        <v>0.2591412921940685</v>
+      </c>
+      <c r="M21">
+        <v>0.5089408489790443</v>
+      </c>
+      <c r="N21">
+        <v>0.8068904168112484</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
         <v>5</v>
       </c>
     </row>
@@ -1061,8 +1541,8 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
